--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfb1-Tgfbr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfb1-Tgfbr3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H2">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I2">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J2">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.56613966666666</v>
+        <v>41.607769</v>
       </c>
       <c r="N2">
-        <v>97.698419</v>
+        <v>124.823307</v>
       </c>
       <c r="O2">
-        <v>0.4203775945150413</v>
+        <v>0.4674897261536314</v>
       </c>
       <c r="P2">
-        <v>0.4203775945150412</v>
+        <v>0.4674897261536314</v>
       </c>
       <c r="Q2">
-        <v>1587.489658557742</v>
+        <v>1991.447696854856</v>
       </c>
       <c r="R2">
-        <v>14287.40692701968</v>
+        <v>17923.02927169371</v>
       </c>
       <c r="S2">
-        <v>0.06513291860910754</v>
+        <v>0.0574132655871127</v>
       </c>
       <c r="T2">
-        <v>0.06513291860910751</v>
+        <v>0.0574132655871127</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H3">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I3">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J3">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>122.56588</v>
       </c>
       <c r="O3">
-        <v>0.5273775188114274</v>
+        <v>0.4590351838457449</v>
       </c>
       <c r="P3">
-        <v>0.5273775188114271</v>
+        <v>0.4590351838457449</v>
       </c>
       <c r="Q3">
-        <v>1991.557990227346</v>
+        <v>1955.432405255764</v>
       </c>
       <c r="R3">
-        <v>17924.02191204612</v>
+        <v>17598.89164730188</v>
       </c>
       <c r="S3">
-        <v>0.0817113886591516</v>
+        <v>0.05637494783212389</v>
       </c>
       <c r="T3">
-        <v>0.08171138865915156</v>
+        <v>0.05637494783212389</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H4">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I4">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J4">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.03779266666666666</v>
+        <v>0.2401453333333333</v>
       </c>
       <c r="N4">
-        <v>0.113378</v>
+        <v>0.720436</v>
       </c>
       <c r="O4">
-        <v>0.0004878438300104565</v>
+        <v>0.002698185430636104</v>
       </c>
       <c r="P4">
-        <v>0.0004878438300104564</v>
+        <v>0.002698185430636104</v>
       </c>
       <c r="Q4">
-        <v>1.842265252091333</v>
+        <v>11.49393208218178</v>
       </c>
       <c r="R4">
-        <v>16.580387268822</v>
+        <v>103.445388739636</v>
       </c>
       <c r="S4">
-        <v>7.558607520622615E-05</v>
+        <v>0.0003313690720156703</v>
       </c>
       <c r="T4">
-        <v>7.558607520622614E-05</v>
+        <v>0.0003313690720156703</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H5">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I5">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J5">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.937153333333333</v>
+        <v>6.288874666666666</v>
       </c>
       <c r="N5">
-        <v>11.81146</v>
+        <v>18.866624</v>
       </c>
       <c r="O5">
-        <v>0.05082245130814891</v>
+        <v>0.0706595034147231</v>
       </c>
       <c r="P5">
-        <v>0.05082245130814889</v>
+        <v>0.0706595034147231</v>
       </c>
       <c r="Q5">
-        <v>191.9229686047266</v>
+        <v>301.0006369421582</v>
       </c>
       <c r="R5">
-        <v>1727.30671744254</v>
+        <v>2709.005732479423</v>
       </c>
       <c r="S5">
-        <v>0.007874383953283106</v>
+        <v>0.008677822439395829</v>
       </c>
       <c r="T5">
-        <v>0.007874383953283104</v>
+        <v>0.008677822439395829</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H6">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I6">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J6">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.07240166666666668</v>
+        <v>0.010449</v>
       </c>
       <c r="N6">
-        <v>0.217205</v>
+        <v>0.031347</v>
       </c>
       <c r="O6">
-        <v>0.000934591535372129</v>
+        <v>0.0001174011552645203</v>
       </c>
       <c r="P6">
-        <v>0.0009345915353721286</v>
+        <v>0.0001174011552645203</v>
       </c>
       <c r="Q6">
-        <v>3.529337473588334</v>
+        <v>0.500114221083</v>
       </c>
       <c r="R6">
-        <v>31.764037262295</v>
+        <v>4.501027989747</v>
       </c>
       <c r="S6">
-        <v>0.0001448047545835026</v>
+        <v>1.441824992154087E-05</v>
       </c>
       <c r="T6">
-        <v>0.0001448047545835025</v>
+        <v>1.441824992154087E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>55.966988</v>
       </c>
       <c r="I7">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J7">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.56613966666666</v>
+        <v>41.607769</v>
       </c>
       <c r="N7">
-        <v>97.698419</v>
+        <v>124.823307</v>
       </c>
       <c r="O7">
-        <v>0.4203775945150413</v>
+        <v>0.4674897261536314</v>
       </c>
       <c r="P7">
-        <v>0.4203775945150412</v>
+        <v>0.4674897261536314</v>
       </c>
       <c r="Q7">
-        <v>607.5429159768858</v>
+        <v>776.2205027765907</v>
       </c>
       <c r="R7">
-        <v>5467.886243791972</v>
+        <v>6985.984524989316</v>
       </c>
       <c r="S7">
-        <v>0.02492680382800934</v>
+        <v>0.02237837024314409</v>
       </c>
       <c r="T7">
-        <v>0.02492680382800933</v>
+        <v>0.02237837024314409</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>55.966988</v>
       </c>
       <c r="I8">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J8">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>122.56588</v>
       </c>
       <c r="O8">
-        <v>0.5273775188114274</v>
+        <v>0.4590351838457449</v>
       </c>
       <c r="P8">
-        <v>0.5273775188114271</v>
+        <v>0.4590351838457449</v>
       </c>
       <c r="Q8">
         <v>762.1825705743822</v>
@@ -948,10 +948,10 @@
         <v>6859.64313516944</v>
       </c>
       <c r="S8">
-        <v>0.03127149526101679</v>
+        <v>0.02197365786676978</v>
       </c>
       <c r="T8">
-        <v>0.03127149526101678</v>
+        <v>0.02197365786676978</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>55.966988</v>
       </c>
       <c r="I9">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J9">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.03779266666666666</v>
+        <v>0.2401453333333333</v>
       </c>
       <c r="N9">
-        <v>0.113378</v>
+        <v>0.720436</v>
       </c>
       <c r="O9">
-        <v>0.0004878438300104565</v>
+        <v>0.002698185430636104</v>
       </c>
       <c r="P9">
-        <v>0.0004878438300104564</v>
+        <v>0.002698185430636104</v>
       </c>
       <c r="Q9">
-        <v>0.7050472406071111</v>
+        <v>4.480070329640889</v>
       </c>
       <c r="R9">
-        <v>6.345425165463999</v>
+        <v>40.320632966768</v>
       </c>
       <c r="S9">
-        <v>2.892729681134392E-05</v>
+        <v>0.0001291600417579848</v>
       </c>
       <c r="T9">
-        <v>2.892729681134391E-05</v>
+        <v>0.0001291600417579848</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>55.966988</v>
       </c>
       <c r="I10">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J10">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.937153333333333</v>
+        <v>6.288874666666666</v>
       </c>
       <c r="N10">
-        <v>11.81146</v>
+        <v>18.866624</v>
       </c>
       <c r="O10">
-        <v>0.05082245130814891</v>
+        <v>0.0706595034147231</v>
       </c>
       <c r="P10">
-        <v>0.05082245130814889</v>
+        <v>0.0706595034147231</v>
       </c>
       <c r="Q10">
-        <v>73.45020445360889</v>
+        <v>117.3231243342791</v>
       </c>
       <c r="R10">
-        <v>661.05184008248</v>
+        <v>1055.908119008512</v>
       </c>
       <c r="S10">
-        <v>0.003013579435122478</v>
+        <v>0.003382415570116149</v>
       </c>
       <c r="T10">
-        <v>0.003013579435122477</v>
+        <v>0.003382415570116149</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>55.966988</v>
       </c>
       <c r="I11">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J11">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.07240166666666668</v>
+        <v>0.010449</v>
       </c>
       <c r="N11">
-        <v>0.217205</v>
+        <v>0.031347</v>
       </c>
       <c r="O11">
-        <v>0.000934591535372129</v>
+        <v>0.0001174011552645203</v>
       </c>
       <c r="P11">
-        <v>0.0009345915353721286</v>
+        <v>0.0001174011552645203</v>
       </c>
       <c r="Q11">
-        <v>1.350701069837778</v>
+        <v>0.194933019204</v>
       </c>
       <c r="R11">
-        <v>12.15630962854</v>
+        <v>1.754397172836</v>
       </c>
       <c r="S11">
-        <v>5.541774862766991E-05</v>
+        <v>5.619902155066584E-06</v>
       </c>
       <c r="T11">
-        <v>5.541774862766988E-05</v>
+        <v>5.619902155066584E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H12">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I12">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J12">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>32.56613966666666</v>
+        <v>41.607769</v>
       </c>
       <c r="N12">
-        <v>97.698419</v>
+        <v>124.823307</v>
       </c>
       <c r="O12">
-        <v>0.4203775945150413</v>
+        <v>0.4674897261536314</v>
       </c>
       <c r="P12">
-        <v>0.4203775945150412</v>
+        <v>0.4674897261536314</v>
       </c>
       <c r="Q12">
-        <v>3180.453967433329</v>
+        <v>7117.419999946233</v>
       </c>
       <c r="R12">
-        <v>28624.08570689996</v>
+        <v>64056.7799995161</v>
       </c>
       <c r="S12">
-        <v>0.1304904559750323</v>
+        <v>0.205194605611439</v>
       </c>
       <c r="T12">
-        <v>0.1304904559750323</v>
+        <v>0.205194605611439</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H13">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I13">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J13">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>122.56588</v>
       </c>
       <c r="O13">
-        <v>0.5273775188114274</v>
+        <v>0.4590351838457449</v>
       </c>
       <c r="P13">
-        <v>0.5273775188114271</v>
+        <v>0.4590351838457449</v>
       </c>
       <c r="Q13">
-        <v>3989.984109343236</v>
+        <v>6988.701602201662</v>
       </c>
       <c r="R13">
-        <v>35909.85698408912</v>
+        <v>62898.31441981496</v>
       </c>
       <c r="S13">
-        <v>0.1637045689365873</v>
+        <v>0.2014836652903208</v>
       </c>
       <c r="T13">
-        <v>0.1637045689365873</v>
+        <v>0.2014836652903208</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H14">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I14">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J14">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.03779266666666666</v>
+        <v>0.2401453333333333</v>
       </c>
       <c r="N14">
-        <v>0.113378</v>
+        <v>0.720436</v>
       </c>
       <c r="O14">
-        <v>0.0004878438300104565</v>
+        <v>0.002698185430636104</v>
       </c>
       <c r="P14">
-        <v>0.0004878438300104564</v>
+        <v>0.002698185430636104</v>
       </c>
       <c r="Q14">
-        <v>3.690883778985778</v>
+        <v>41.07923206265689</v>
       </c>
       <c r="R14">
-        <v>33.217954010872</v>
+        <v>369.713088563912</v>
       </c>
       <c r="S14">
-        <v>0.0001514328181455753</v>
+        <v>0.001184310722422077</v>
       </c>
       <c r="T14">
-        <v>0.0001514328181455752</v>
+        <v>0.001184310722422077</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H15">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I15">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J15">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.937153333333333</v>
+        <v>6.288874666666666</v>
       </c>
       <c r="N15">
-        <v>11.81146</v>
+        <v>18.866624</v>
       </c>
       <c r="O15">
-        <v>0.05082245130814891</v>
+        <v>0.0706595034147231</v>
       </c>
       <c r="P15">
-        <v>0.05082245130814889</v>
+        <v>0.0706595034147231</v>
       </c>
       <c r="Q15">
-        <v>384.5078068067822</v>
+        <v>1075.774150007623</v>
       </c>
       <c r="R15">
-        <v>3460.57026126104</v>
+        <v>9681.967350068608</v>
       </c>
       <c r="S15">
-        <v>0.01577592367314414</v>
+        <v>0.03101447609378999</v>
       </c>
       <c r="T15">
-        <v>0.01577592367314413</v>
+        <v>0.03101447609378999</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H16">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I16">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J16">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.07240166666666668</v>
+        <v>0.010449</v>
       </c>
       <c r="N16">
-        <v>0.217205</v>
+        <v>0.031347</v>
       </c>
       <c r="O16">
-        <v>0.000934591535372129</v>
+        <v>0.0001174011552645203</v>
       </c>
       <c r="P16">
-        <v>0.0009345915353721286</v>
+        <v>0.0001174011552645203</v>
       </c>
       <c r="Q16">
-        <v>7.070846294824447</v>
+        <v>1.787404693086</v>
       </c>
       <c r="R16">
-        <v>63.63761665342001</v>
+        <v>16.086642237774</v>
       </c>
       <c r="S16">
-        <v>0.0002901088858977022</v>
+        <v>5.153072336163773E-05</v>
       </c>
       <c r="T16">
-        <v>0.0002901088858977021</v>
+        <v>5.153072336163773E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.83447233333333</v>
+        <v>12.628047</v>
       </c>
       <c r="H17">
-        <v>32.503417</v>
+        <v>37.884141</v>
       </c>
       <c r="I17">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J17">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>32.56613966666666</v>
+        <v>41.607769</v>
       </c>
       <c r="N17">
-        <v>97.698419</v>
+        <v>124.823307</v>
       </c>
       <c r="O17">
-        <v>0.4203775945150413</v>
+        <v>0.4674897261536314</v>
       </c>
       <c r="P17">
-        <v>0.4203775945150412</v>
+        <v>0.4674897261536314</v>
       </c>
       <c r="Q17">
-        <v>352.8369392219691</v>
+        <v>525.424862497143</v>
       </c>
       <c r="R17">
-        <v>3175.532452997723</v>
+        <v>4728.823762474287</v>
       </c>
       <c r="S17">
-        <v>0.01447650352916944</v>
+        <v>0.01514795353363442</v>
       </c>
       <c r="T17">
-        <v>0.01447650352916944</v>
+        <v>0.01514795353363442</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>10.83447233333333</v>
+        <v>12.628047</v>
       </c>
       <c r="H18">
-        <v>32.503417</v>
+        <v>37.884141</v>
       </c>
       <c r="I18">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J18">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>122.56588</v>
       </c>
       <c r="O18">
-        <v>0.5273775188114274</v>
+        <v>0.4590351838457449</v>
       </c>
       <c r="P18">
-        <v>0.5273775188114271</v>
+        <v>0.4590351838457449</v>
       </c>
       <c r="Q18">
-        <v>442.6455452902177</v>
+        <v>515.92256441212</v>
       </c>
       <c r="R18">
-        <v>3983.80990761196</v>
+        <v>4643.30307970908</v>
       </c>
       <c r="S18">
-        <v>0.01816124981895314</v>
+        <v>0.01487400309822758</v>
       </c>
       <c r="T18">
-        <v>0.01816124981895313</v>
+        <v>0.01487400309822758</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>10.83447233333333</v>
+        <v>12.628047</v>
       </c>
       <c r="H19">
-        <v>32.503417</v>
+        <v>37.884141</v>
       </c>
       <c r="I19">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J19">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.03779266666666666</v>
+        <v>0.2401453333333333</v>
       </c>
       <c r="N19">
-        <v>0.113378</v>
+        <v>0.720436</v>
       </c>
       <c r="O19">
-        <v>0.0004878438300104565</v>
+        <v>0.002698185430636104</v>
       </c>
       <c r="P19">
-        <v>0.0004878438300104564</v>
+        <v>0.002698185430636104</v>
       </c>
       <c r="Q19">
-        <v>0.4094636014028888</v>
+        <v>3.032566556164</v>
       </c>
       <c r="R19">
-        <v>3.685172412626</v>
+        <v>27.293099005476</v>
       </c>
       <c r="S19">
-        <v>1.679983191058775E-05</v>
+        <v>8.742863263474863E-05</v>
       </c>
       <c r="T19">
-        <v>1.679983191058775E-05</v>
+        <v>8.742863263474863E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.83447233333333</v>
+        <v>12.628047</v>
       </c>
       <c r="H20">
-        <v>32.503417</v>
+        <v>37.884141</v>
       </c>
       <c r="I20">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J20">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.937153333333333</v>
+        <v>6.288874666666666</v>
       </c>
       <c r="N20">
-        <v>11.81146</v>
+        <v>18.866624</v>
       </c>
       <c r="O20">
-        <v>0.05082245130814891</v>
+        <v>0.0706595034147231</v>
       </c>
       <c r="P20">
-        <v>0.05082245130814889</v>
+        <v>0.0706595034147231</v>
       </c>
       <c r="Q20">
-        <v>42.65697886209111</v>
+        <v>79.41620486777599</v>
       </c>
       <c r="R20">
-        <v>383.91280975882</v>
+        <v>714.745843809984</v>
       </c>
       <c r="S20">
-        <v>0.001750167956910783</v>
+        <v>0.002289562346626114</v>
       </c>
       <c r="T20">
-        <v>0.001750167956910783</v>
+        <v>0.002289562346626114</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.83447233333333</v>
+        <v>12.628047</v>
       </c>
       <c r="H21">
-        <v>32.503417</v>
+        <v>37.884141</v>
       </c>
       <c r="I21">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J21">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.07240166666666668</v>
+        <v>0.010449</v>
       </c>
       <c r="N21">
-        <v>0.217205</v>
+        <v>0.031347</v>
       </c>
       <c r="O21">
-        <v>0.000934591535372129</v>
+        <v>0.0001174011552645203</v>
       </c>
       <c r="P21">
-        <v>0.0009345915353721286</v>
+        <v>0.0001174011552645203</v>
       </c>
       <c r="Q21">
-        <v>0.7844338543872224</v>
+        <v>0.131950463103</v>
       </c>
       <c r="R21">
-        <v>7.059904689485001</v>
+        <v>1.187554167927</v>
       </c>
       <c r="S21">
-        <v>3.218444045704822E-05</v>
+        <v>3.804120487040438E-06</v>
       </c>
       <c r="T21">
-        <v>3.218444045704821E-05</v>
+        <v>3.804120487040438E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>138.7199146666667</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H22">
-        <v>416.159744</v>
+        <v>418.546342</v>
       </c>
       <c r="I22">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J22">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>32.56613966666666</v>
+        <v>41.607769</v>
       </c>
       <c r="N22">
-        <v>97.698419</v>
+        <v>124.823307</v>
       </c>
       <c r="O22">
-        <v>0.4203775945150413</v>
+        <v>0.4674897261536314</v>
       </c>
       <c r="P22">
-        <v>0.4203775945150412</v>
+        <v>0.4674897261536314</v>
       </c>
       <c r="Q22">
-        <v>4517.572115582749</v>
+        <v>5804.926504576999</v>
       </c>
       <c r="R22">
-        <v>40658.14904024474</v>
+        <v>52244.33854119299</v>
       </c>
       <c r="S22">
-        <v>0.1853509125737227</v>
+        <v>0.1673555311783012</v>
       </c>
       <c r="T22">
-        <v>0.1853509125737226</v>
+        <v>0.1673555311783012</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>138.7199146666667</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H23">
-        <v>416.159744</v>
+        <v>418.546342</v>
       </c>
       <c r="I23">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J23">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>122.56588</v>
       </c>
       <c r="O23">
-        <v>0.5273775188114274</v>
+        <v>0.4590351838457449</v>
       </c>
       <c r="P23">
-        <v>0.5273775188114271</v>
+        <v>0.4590351838457449</v>
       </c>
       <c r="Q23">
-        <v>5667.442804881635</v>
+        <v>5699.94452533455</v>
       </c>
       <c r="R23">
-        <v>51006.98524393472</v>
+        <v>51299.50072801096</v>
       </c>
       <c r="S23">
-        <v>0.2325288161357185</v>
+        <v>0.1643289097583028</v>
       </c>
       <c r="T23">
-        <v>0.2325288161357184</v>
+        <v>0.1643289097583028</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>138.7199146666667</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H24">
-        <v>416.159744</v>
+        <v>418.546342</v>
       </c>
       <c r="I24">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J24">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.03779266666666666</v>
+        <v>0.2401453333333333</v>
       </c>
       <c r="N24">
-        <v>0.113378</v>
+        <v>0.720436</v>
       </c>
       <c r="O24">
-        <v>0.0004878438300104565</v>
+        <v>0.002698185430636104</v>
       </c>
       <c r="P24">
-        <v>0.0004878438300104564</v>
+        <v>0.002698185430636104</v>
       </c>
       <c r="Q24">
-        <v>5.242595495025777</v>
+        <v>33.50398360501244</v>
       </c>
       <c r="R24">
-        <v>47.183359455232</v>
+        <v>301.535852445112</v>
       </c>
       <c r="S24">
-        <v>0.0002150978079367234</v>
+        <v>0.0009659169618056235</v>
       </c>
       <c r="T24">
-        <v>0.0002150978079367234</v>
+        <v>0.0009659169618056235</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>138.7199146666667</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H25">
-        <v>416.159744</v>
+        <v>418.546342</v>
       </c>
       <c r="I25">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J25">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.937153333333333</v>
+        <v>6.288874666666666</v>
       </c>
       <c r="N25">
-        <v>11.81146</v>
+        <v>18.866624</v>
       </c>
       <c r="O25">
-        <v>0.05082245130814891</v>
+        <v>0.0706595034147231</v>
       </c>
       <c r="P25">
-        <v>0.05082245130814889</v>
+        <v>0.0706595034147231</v>
       </c>
       <c r="Q25">
-        <v>546.1615744295823</v>
+        <v>877.3951623432674</v>
       </c>
       <c r="R25">
-        <v>4915.454169866241</v>
+        <v>7896.556461089407</v>
       </c>
       <c r="S25">
-        <v>0.0224083962896884</v>
+        <v>0.02529522696479501</v>
       </c>
       <c r="T25">
-        <v>0.02240839628968839</v>
+        <v>0.02529522696479501</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>138.7199146666667</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H26">
-        <v>416.159744</v>
+        <v>418.546342</v>
       </c>
       <c r="I26">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J26">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.07240166666666668</v>
+        <v>0.010449</v>
       </c>
       <c r="N26">
-        <v>0.217205</v>
+        <v>0.031347</v>
       </c>
       <c r="O26">
-        <v>0.000934591535372129</v>
+        <v>0.0001174011552645203</v>
       </c>
       <c r="P26">
-        <v>0.0009345915353721286</v>
+        <v>0.0001174011552645203</v>
       </c>
       <c r="Q26">
-        <v>10.04355302172445</v>
+        <v>1.457796909186</v>
       </c>
       <c r="R26">
-        <v>90.39197719552003</v>
+        <v>13.120172182674</v>
       </c>
       <c r="S26">
-        <v>0.000412075705806206</v>
+        <v>4.202815933923468E-05</v>
       </c>
       <c r="T26">
-        <v>0.0004120757058062058</v>
+        <v>4.202815933923468E-05</v>
       </c>
     </row>
   </sheetData>
